--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.3307185400805</v>
+        <v>468.7588083654798</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.7061887239329</v>
+        <v>641.3764817847416</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.8282647474932</v>
+        <v>580.164410540751</v>
       </c>
       <c r="AD2" t="n">
-        <v>351330.7185400805</v>
+        <v>468758.8083654798</v>
       </c>
       <c r="AE2" t="n">
-        <v>480706.188723933</v>
+        <v>641376.4817847416</v>
       </c>
       <c r="AF2" t="n">
         <v>6.865618311771264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.85879629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>434828.2647474932</v>
+        <v>580164.4105407509</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.3417570374898</v>
+        <v>332.6167728113561</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.0016127449288</v>
+        <v>455.1009425768748</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.7888272479877</v>
+        <v>411.6667473555217</v>
       </c>
       <c r="AD3" t="n">
-        <v>254341.7570374898</v>
+        <v>332616.7728113561</v>
       </c>
       <c r="AE3" t="n">
-        <v>348001.6127449287</v>
+        <v>455100.9425768749</v>
       </c>
       <c r="AF3" t="n">
         <v>9.176487609029636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.10648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>314788.8272479877</v>
+        <v>411666.7473555217</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.4326442118883</v>
+        <v>300.6393291481925</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.3421568462575</v>
+        <v>411.3479934116855</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.2961685438405</v>
+        <v>372.0895182510081</v>
       </c>
       <c r="AD4" t="n">
-        <v>222432.6442118883</v>
+        <v>300639.3291481925</v>
       </c>
       <c r="AE4" t="n">
-        <v>304342.1568462575</v>
+        <v>411347.9934116855</v>
       </c>
       <c r="AF4" t="n">
         <v>1.015380320232469e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>275296.1685438405</v>
+        <v>372089.5182510081</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.3697084400201</v>
+        <v>286.6437131840286</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.1006277102574</v>
+        <v>392.198574206517</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.8910239429184</v>
+        <v>354.7676927384023</v>
       </c>
       <c r="AD5" t="n">
-        <v>208369.7084400201</v>
+        <v>286643.7131840286</v>
       </c>
       <c r="AE5" t="n">
-        <v>285100.6277102574</v>
+        <v>392198.574206517</v>
       </c>
       <c r="AF5" t="n">
         <v>1.055601189522231e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.87268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>257891.0239429183</v>
+        <v>354767.6927384023</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.261507091556</v>
+        <v>272.7138361762925</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.4796053842394</v>
+        <v>373.1391019417311</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.8064640985394</v>
+        <v>337.5272297564302</v>
       </c>
       <c r="AD6" t="n">
-        <v>204261.507091556</v>
+        <v>272713.8361762925</v>
       </c>
       <c r="AE6" t="n">
-        <v>279479.6053842395</v>
+        <v>373139.1019417311</v>
       </c>
       <c r="AF6" t="n">
         <v>1.093231975860427e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.35185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>252806.4640985394</v>
+        <v>337527.2297564303</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.2896194021871</v>
+        <v>271.7419484869236</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.1498257709868</v>
+        <v>371.8093223284778</v>
       </c>
       <c r="AC7" t="n">
-        <v>251.6035967852177</v>
+        <v>336.3243624431083</v>
       </c>
       <c r="AD7" t="n">
-        <v>203289.6194021871</v>
+        <v>271741.9484869236</v>
       </c>
       <c r="AE7" t="n">
-        <v>278149.8257709867</v>
+        <v>371809.3223284777</v>
       </c>
       <c r="AF7" t="n">
         <v>1.103538065091789e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.22453703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>251603.5967852178</v>
+        <v>336324.3624431083</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>191.5557989240519</v>
+        <v>269.7956382492794</v>
       </c>
       <c r="AB8" t="n">
-        <v>262.0950949331853</v>
+        <v>369.1462947961853</v>
       </c>
       <c r="AC8" t="n">
-        <v>237.0811069256147</v>
+        <v>333.9154905209153</v>
       </c>
       <c r="AD8" t="n">
-        <v>191555.7989240519</v>
+        <v>269795.6382492793</v>
       </c>
       <c r="AE8" t="n">
-        <v>262095.0949331853</v>
+        <v>369146.2947961853</v>
       </c>
       <c r="AF8" t="n">
         <v>1.121234705153535e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.99305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>237081.1069256147</v>
+        <v>333915.4905209153</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>189.5089106912057</v>
+        <v>258.0285595836432</v>
       </c>
       <c r="AB9" t="n">
-        <v>259.294452150671</v>
+        <v>353.0460586388224</v>
       </c>
       <c r="AC9" t="n">
-        <v>234.5477535595358</v>
+        <v>319.3518383056939</v>
       </c>
       <c r="AD9" t="n">
-        <v>189508.9106912057</v>
+        <v>258028.5595836432</v>
       </c>
       <c r="AE9" t="n">
-        <v>259294.452150671</v>
+        <v>353046.0586388224</v>
       </c>
       <c r="AF9" t="n">
         <v>1.138809299421752e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.78472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>234547.7535595358</v>
+        <v>319351.8383056939</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>189.0257705049725</v>
+        <v>257.5454193974101</v>
       </c>
       <c r="AB10" t="n">
-        <v>258.6333984332264</v>
+        <v>352.3850049213778</v>
       </c>
       <c r="AC10" t="n">
-        <v>233.9497898810892</v>
+        <v>318.7538746272473</v>
       </c>
       <c r="AD10" t="n">
-        <v>189025.7705049725</v>
+        <v>257545.4193974101</v>
       </c>
       <c r="AE10" t="n">
-        <v>258633.3984332264</v>
+        <v>352385.0049213778</v>
       </c>
       <c r="AF10" t="n">
         <v>1.142619840308611e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.73842592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>233949.7898810892</v>
+        <v>318753.8746272473</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>187.9989481318814</v>
+        <v>256.518597024319</v>
       </c>
       <c r="AB11" t="n">
-        <v>257.2284547621579</v>
+        <v>350.9800612503093</v>
       </c>
       <c r="AC11" t="n">
-        <v>232.6789320621362</v>
+        <v>317.4830168082943</v>
       </c>
       <c r="AD11" t="n">
-        <v>187998.9481318814</v>
+        <v>256518.597024319</v>
       </c>
       <c r="AE11" t="n">
-        <v>257228.4547621579</v>
+        <v>350980.0612503093</v>
       </c>
       <c r="AF11" t="n">
         <v>1.148532280972919e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.66898148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>232678.9320621362</v>
+        <v>317483.0168082943</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>187.2027807753309</v>
+        <v>255.7224296677685</v>
       </c>
       <c r="AB12" t="n">
-        <v>256.1391034605012</v>
+        <v>349.8907099486527</v>
       </c>
       <c r="AC12" t="n">
-        <v>231.6935469197952</v>
+        <v>316.4976316659533</v>
       </c>
       <c r="AD12" t="n">
-        <v>187202.7807753309</v>
+        <v>255722.4296677685</v>
       </c>
       <c r="AE12" t="n">
-        <v>256139.1034605012</v>
+        <v>349890.7099486527</v>
       </c>
       <c r="AF12" t="n">
         <v>1.153793810738403e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.59953703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>231693.5469197952</v>
+        <v>316497.6316659533</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>186.650403087217</v>
+        <v>255.1700519796545</v>
       </c>
       <c r="AB13" t="n">
-        <v>255.3833159384404</v>
+        <v>349.1349224265918</v>
       </c>
       <c r="AC13" t="n">
-        <v>231.0098906980851</v>
+        <v>315.8139754442433</v>
       </c>
       <c r="AD13" t="n">
-        <v>186650.403087217</v>
+        <v>255170.0519796545</v>
       </c>
       <c r="AE13" t="n">
-        <v>255383.3159384404</v>
+        <v>349134.9224265918</v>
       </c>
       <c r="AF13" t="n">
         <v>1.152220776066248e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.62268518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>231009.8906980851</v>
+        <v>315813.9754442433</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>185.713193791336</v>
+        <v>254.2328426837735</v>
       </c>
       <c r="AB14" t="n">
-        <v>254.1009848330606</v>
+        <v>347.8525913212119</v>
       </c>
       <c r="AC14" t="n">
-        <v>229.8499434736393</v>
+        <v>314.6540282197974</v>
       </c>
       <c r="AD14" t="n">
-        <v>185713.1937913359</v>
+        <v>254232.8426837735</v>
       </c>
       <c r="AE14" t="n">
-        <v>254100.9848330606</v>
+        <v>347852.5913212119</v>
       </c>
       <c r="AF14" t="n">
         <v>1.15839086896134e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.55324074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>229849.9434736393</v>
+        <v>314654.0282197974</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>183.992519753999</v>
+        <v>252.4106834199513</v>
       </c>
       <c r="AB15" t="n">
-        <v>251.7466827043963</v>
+        <v>345.3594326284585</v>
       </c>
       <c r="AC15" t="n">
-        <v>227.7203326358502</v>
+        <v>312.3988130935094</v>
       </c>
       <c r="AD15" t="n">
-        <v>183992.519753999</v>
+        <v>252410.6834199513</v>
       </c>
       <c r="AE15" t="n">
-        <v>251746.6827043963</v>
+        <v>345359.4326284585</v>
       </c>
       <c r="AF15" t="n">
         <v>1.169686885184661e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>227720.3326358502</v>
+        <v>312398.8130935094</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>184.1076927650827</v>
+        <v>252.525856431035</v>
       </c>
       <c r="AB16" t="n">
-        <v>251.9042674992356</v>
+        <v>345.5170174232977</v>
       </c>
       <c r="AC16" t="n">
-        <v>227.8628777590417</v>
+        <v>312.5413582167009</v>
       </c>
       <c r="AD16" t="n">
-        <v>184107.6927650827</v>
+        <v>252525.856431035</v>
       </c>
       <c r="AE16" t="n">
-        <v>251904.2674992356</v>
+        <v>345517.0174232977</v>
       </c>
       <c r="AF16" t="n">
         <v>1.169754688403289e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH16" t="n">
-        <v>227862.8777590417</v>
+        <v>312541.3582167009</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>184.1584403306107</v>
+        <v>252.576603996563</v>
       </c>
       <c r="AB17" t="n">
-        <v>251.9737025572155</v>
+        <v>345.5864524812777</v>
       </c>
       <c r="AC17" t="n">
-        <v>227.9256860325408</v>
+        <v>312.6041664902</v>
       </c>
       <c r="AD17" t="n">
-        <v>184158.4403306107</v>
+        <v>252576.603996563</v>
       </c>
       <c r="AE17" t="n">
-        <v>251973.7025572155</v>
+        <v>345586.4524812777</v>
       </c>
       <c r="AF17" t="n">
         <v>1.169307187160348e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.42592592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>227925.6860325408</v>
+        <v>312604.1664902</v>
       </c>
     </row>
   </sheetData>
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.8384821226587</v>
+        <v>393.5766538160354</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.1475068298136</v>
+        <v>538.5089411276215</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.3853588095814</v>
+        <v>487.1144035884461</v>
       </c>
       <c r="AD2" t="n">
-        <v>296838.4821226586</v>
+        <v>393576.6538160354</v>
       </c>
       <c r="AE2" t="n">
-        <v>406147.5068298136</v>
+        <v>538508.9411276215</v>
       </c>
       <c r="AF2" t="n">
         <v>8.559505184756069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>367385.3588095814</v>
+        <v>487114.4035884461</v>
       </c>
     </row>
     <row r="3">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.1302609986487</v>
+        <v>305.1868725120628</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.4554463261546</v>
+        <v>417.5701428655867</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.9712774137243</v>
+        <v>377.7178344938706</v>
       </c>
       <c r="AD3" t="n">
-        <v>218130.2609986487</v>
+        <v>305186.8725120628</v>
       </c>
       <c r="AE3" t="n">
-        <v>298455.4463261546</v>
+        <v>417570.1428655867</v>
       </c>
       <c r="AF3" t="n">
         <v>1.078814886314177e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.91435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>269971.2774137243</v>
+        <v>377717.8344938706</v>
       </c>
     </row>
     <row r="4">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.5104517936988</v>
+        <v>266.3084612632389</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.610757807062</v>
+        <v>364.3749854004938</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.6886082901284</v>
+        <v>329.5995481973737</v>
       </c>
       <c r="AD4" t="n">
-        <v>198510.4517936988</v>
+        <v>266308.4612632389</v>
       </c>
       <c r="AE4" t="n">
-        <v>271610.757807062</v>
+        <v>364374.9854004938</v>
       </c>
       <c r="AF4" t="n">
         <v>1.183970663602589e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.50231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>245688.6082901284</v>
+        <v>329599.5481973737</v>
       </c>
     </row>
     <row r="5">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.1432010967117</v>
+        <v>263.8397253397665</v>
       </c>
       <c r="AB5" t="n">
-        <v>268.3717809677159</v>
+        <v>360.9971519970567</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.7587548543958</v>
+        <v>326.5440904731417</v>
       </c>
       <c r="AD5" t="n">
-        <v>196143.2010967117</v>
+        <v>263839.7253397665</v>
       </c>
       <c r="AE5" t="n">
-        <v>268371.7809677159</v>
+        <v>360997.1519970567</v>
       </c>
       <c r="AF5" t="n">
         <v>1.214314047905511e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>242758.7548543958</v>
+        <v>326544.0904731417</v>
       </c>
     </row>
     <row r="6">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.330677862117</v>
+        <v>261.7067402254225</v>
       </c>
       <c r="AB6" t="n">
-        <v>252.209365546406</v>
+        <v>358.0787076629493</v>
       </c>
       <c r="AC6" t="n">
-        <v>228.1388576767981</v>
+        <v>323.9041783702192</v>
       </c>
       <c r="AD6" t="n">
-        <v>184330.677862117</v>
+        <v>261706.7402254225</v>
       </c>
       <c r="AE6" t="n">
-        <v>252209.365546406</v>
+        <v>358078.7076629493</v>
       </c>
       <c r="AF6" t="n">
         <v>1.236912079344801e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>228138.8576767981</v>
+        <v>323904.1783702192</v>
       </c>
     </row>
     <row r="7">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.4872308266398</v>
+        <v>250.2510748773956</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.6870799853238</v>
+        <v>342.4045609453307</v>
       </c>
       <c r="AC7" t="n">
-        <v>225.8572955096148</v>
+        <v>309.7259502166299</v>
       </c>
       <c r="AD7" t="n">
-        <v>182487.2308266398</v>
+        <v>250251.0748773956</v>
       </c>
       <c r="AE7" t="n">
-        <v>249687.0799853238</v>
+        <v>342404.5609453307</v>
       </c>
       <c r="AF7" t="n">
         <v>1.256023218211384e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.66898148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>225857.2955096148</v>
+        <v>309725.9502166299</v>
       </c>
     </row>
     <row r="8">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.0734250315086</v>
+        <v>248.8372690822645</v>
       </c>
       <c r="AB8" t="n">
-        <v>247.7526485237168</v>
+        <v>340.4701294837236</v>
       </c>
       <c r="AC8" t="n">
-        <v>224.1074834717113</v>
+        <v>307.9761381787264</v>
       </c>
       <c r="AD8" t="n">
-        <v>181073.4250315086</v>
+        <v>248837.2690822645</v>
       </c>
       <c r="AE8" t="n">
-        <v>247752.6485237168</v>
+        <v>340470.1294837235</v>
       </c>
       <c r="AF8" t="n">
         <v>1.268457328747251e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>224107.4834717113</v>
+        <v>307976.1381787264</v>
       </c>
     </row>
     <row r="9">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>180.4355585215373</v>
+        <v>248.1994025722931</v>
       </c>
       <c r="AB9" t="n">
-        <v>246.87989142409</v>
+        <v>339.5973723840968</v>
       </c>
       <c r="AC9" t="n">
-        <v>223.3180210847504</v>
+        <v>307.1866757917654</v>
       </c>
       <c r="AD9" t="n">
-        <v>180435.5585215373</v>
+        <v>248199.4025722931</v>
       </c>
       <c r="AE9" t="n">
-        <v>246879.89142409</v>
+        <v>339597.3723840968</v>
       </c>
       <c r="AF9" t="n">
         <v>1.269822410094864e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.51851851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>223318.0210847504</v>
+        <v>307186.6757917654</v>
       </c>
     </row>
     <row r="10">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>179.1380151775163</v>
+        <v>246.8003740017869</v>
       </c>
       <c r="AB10" t="n">
-        <v>245.104535377229</v>
+        <v>337.6831597731466</v>
       </c>
       <c r="AC10" t="n">
-        <v>221.7121025272734</v>
+        <v>305.4551529457895</v>
       </c>
       <c r="AD10" t="n">
-        <v>179138.0151775162</v>
+        <v>246800.3740017869</v>
       </c>
       <c r="AE10" t="n">
-        <v>245104.535377229</v>
+        <v>337683.1597731466</v>
       </c>
       <c r="AF10" t="n">
         <v>1.279185087598602e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.42592592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>221712.1025272734</v>
+        <v>305455.1529457895</v>
       </c>
     </row>
     <row r="11">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>177.4449012852698</v>
+        <v>245.1072601095404</v>
       </c>
       <c r="AB11" t="n">
-        <v>242.7879422549453</v>
+        <v>335.3665666508629</v>
       </c>
       <c r="AC11" t="n">
-        <v>219.6166018012208</v>
+        <v>303.3596522197369</v>
       </c>
       <c r="AD11" t="n">
-        <v>177444.9012852698</v>
+        <v>245107.2601095404</v>
       </c>
       <c r="AE11" t="n">
-        <v>242787.9422549453</v>
+        <v>335366.5666508629</v>
       </c>
       <c r="AF11" t="n">
         <v>1.288473575898665e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>219616.6018012209</v>
+        <v>303359.6522197369</v>
       </c>
     </row>
     <row r="12">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>176.6917648037481</v>
+        <v>244.3541236280188</v>
       </c>
       <c r="AB12" t="n">
-        <v>241.7574676948913</v>
+        <v>334.3360920908089</v>
       </c>
       <c r="AC12" t="n">
-        <v>218.6844742868979</v>
+        <v>302.427524705414</v>
       </c>
       <c r="AD12" t="n">
-        <v>176691.7648037481</v>
+        <v>244354.1236280187</v>
       </c>
       <c r="AE12" t="n">
-        <v>241757.4676948913</v>
+        <v>334336.0920908089</v>
       </c>
       <c r="AF12" t="n">
         <v>1.299097469864871e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.21759259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>218684.4742868979</v>
+        <v>302427.524705414</v>
       </c>
     </row>
   </sheetData>
@@ -7796,28 +7796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.455072633919</v>
+        <v>255.2647611329494</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.9065914935527</v>
+        <v>349.2645076684028</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.3421729370573</v>
+        <v>315.9311932524499</v>
       </c>
       <c r="AD2" t="n">
-        <v>180455.072633919</v>
+        <v>255264.7611329494</v>
       </c>
       <c r="AE2" t="n">
-        <v>246906.5914935527</v>
+        <v>349264.5076684027</v>
       </c>
       <c r="AF2" t="n">
         <v>1.604000452810621e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>223342.1729370573</v>
+        <v>315931.1932524499</v>
       </c>
     </row>
     <row r="3">
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.1311085466397</v>
+        <v>229.6194807247244</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.5714236668792</v>
+        <v>314.1755036239649</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.1386421801496</v>
+        <v>284.1910345062755</v>
       </c>
       <c r="AD3" t="n">
-        <v>164131.1085466397</v>
+        <v>229619.4807247244</v>
       </c>
       <c r="AE3" t="n">
-        <v>224571.4236668792</v>
+        <v>314175.5036239649</v>
       </c>
       <c r="AF3" t="n">
         <v>1.759224966927209e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.62268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>203138.6421801496</v>
+        <v>284191.0345062755</v>
       </c>
     </row>
     <row r="4">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.2713768288916</v>
+        <v>216.3711128783264</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.2903684513133</v>
+        <v>296.048502259793</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.361603462348</v>
+        <v>267.7940487108882</v>
       </c>
       <c r="AD4" t="n">
-        <v>160271.3768288916</v>
+        <v>216371.1128783264</v>
       </c>
       <c r="AE4" t="n">
-        <v>219290.3684513133</v>
+        <v>296048.502259793</v>
       </c>
       <c r="AF4" t="n">
         <v>1.838152334945663e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.04398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>198361.603462348</v>
+        <v>267794.0487108882</v>
       </c>
     </row>
     <row r="5">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.1527152529149</v>
+        <v>216.2524513023496</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.1280104480827</v>
+        <v>295.8861442565624</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.2147406790748</v>
+        <v>267.6471859276151</v>
       </c>
       <c r="AD5" t="n">
-        <v>160152.7152529149</v>
+        <v>216252.4513023496</v>
       </c>
       <c r="AE5" t="n">
-        <v>219128.0104480827</v>
+        <v>295886.1442565624</v>
       </c>
       <c r="AF5" t="n">
         <v>1.838918620072056e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.03240740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>198214.7406790748</v>
+        <v>267647.185927615</v>
       </c>
     </row>
   </sheetData>
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.0862186783766</v>
+        <v>303.3951844159085</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.3951856805484</v>
+        <v>415.1186761687281</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.9167679595584</v>
+        <v>375.5003323379053</v>
       </c>
       <c r="AD2" t="n">
-        <v>218086.2186783766</v>
+        <v>303395.1844159085</v>
       </c>
       <c r="AE2" t="n">
-        <v>298395.1856805484</v>
+        <v>415118.6761687282</v>
       </c>
       <c r="AF2" t="n">
         <v>1.244379910351697e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>269916.7679595584</v>
+        <v>375500.3323379052</v>
       </c>
     </row>
     <row r="3">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.0412148853036</v>
+        <v>251.3518859769505</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.1815536482106</v>
+        <v>343.9107392560991</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.0182615106414</v>
+        <v>311.0883809833536</v>
       </c>
       <c r="AD3" t="n">
-        <v>185041.2148853036</v>
+        <v>251351.8859769505</v>
       </c>
       <c r="AE3" t="n">
-        <v>253181.5536482106</v>
+        <v>343910.7392560991</v>
       </c>
       <c r="AF3" t="n">
         <v>1.453127680329262e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.28240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>229018.2615106414</v>
+        <v>311088.3809833536</v>
       </c>
     </row>
     <row r="4">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.0661810116334</v>
+        <v>237.4441719109847</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.0602957672829</v>
+        <v>324.8815913060129</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.7219096450094</v>
+        <v>293.8753482060407</v>
       </c>
       <c r="AD4" t="n">
-        <v>171066.1810116334</v>
+        <v>237444.1719109847</v>
       </c>
       <c r="AE4" t="n">
-        <v>234060.2957672829</v>
+        <v>324881.5913060129</v>
       </c>
       <c r="AF4" t="n">
         <v>1.528670734470125e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.57638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>211721.9096450094</v>
+        <v>293875.3482060407</v>
       </c>
     </row>
     <row r="5">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.9787678569991</v>
+        <v>224.841034238948</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.8359608820589</v>
+        <v>307.6374223319481</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.9007393523386</v>
+        <v>278.2769385165121</v>
       </c>
       <c r="AD5" t="n">
-        <v>167978.7678569991</v>
+        <v>224841.034238948</v>
       </c>
       <c r="AE5" t="n">
-        <v>229835.9608820589</v>
+        <v>307637.4223319481</v>
       </c>
       <c r="AF5" t="n">
         <v>1.576450102046397e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.1712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>207900.7393523386</v>
+        <v>278276.938516512</v>
       </c>
     </row>
     <row r="6">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.5182394059834</v>
+        <v>223.3805057879323</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.8376014214126</v>
+        <v>305.6390628713018</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.0931005139006</v>
+        <v>276.469299678074</v>
       </c>
       <c r="AD6" t="n">
-        <v>166518.2394059834</v>
+        <v>223380.5057879323</v>
       </c>
       <c r="AE6" t="n">
-        <v>227837.6014214126</v>
+        <v>305639.0628713018</v>
       </c>
       <c r="AF6" t="n">
         <v>1.587265026463999e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>206093.1005139006</v>
+        <v>276469.299678074</v>
       </c>
     </row>
     <row r="7">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>156.3559056217974</v>
+        <v>222.6997311023679</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.9330480073713</v>
+        <v>304.7075969128535</v>
       </c>
       <c r="AC7" t="n">
-        <v>193.5155781625276</v>
+        <v>275.626731523379</v>
       </c>
       <c r="AD7" t="n">
-        <v>156355.9056217974</v>
+        <v>222699.7311023679</v>
       </c>
       <c r="AE7" t="n">
-        <v>213933.0480073713</v>
+        <v>304707.5969128535</v>
       </c>
       <c r="AF7" t="n">
         <v>1.596609264642392e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>193515.5781625276</v>
+        <v>275626.731523379</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.1118041821912</v>
+        <v>235.8031867127261</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.1227194019923</v>
+        <v>322.636322962599</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.7783756556342</v>
+        <v>291.8443651220676</v>
       </c>
       <c r="AD2" t="n">
-        <v>171111.8041821912</v>
+        <v>235803.1867127261</v>
       </c>
       <c r="AE2" t="n">
-        <v>234122.7194019923</v>
+        <v>322636.322962599</v>
       </c>
       <c r="AF2" t="n">
         <v>1.908397732492055e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>211778.3756556342</v>
+        <v>291844.3651220676</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.294082337219</v>
+        <v>210.7683870953578</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.4802145450747</v>
+        <v>288.3826056687224</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.2014010868076</v>
+        <v>260.8597745313135</v>
       </c>
       <c r="AD3" t="n">
-        <v>155294.082337219</v>
+        <v>210768.3870953578</v>
       </c>
       <c r="AE3" t="n">
-        <v>212480.2145450747</v>
+        <v>288382.6056687224</v>
       </c>
       <c r="AF3" t="n">
         <v>2.089910428870383e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>192201.4010868076</v>
+        <v>260859.7745313135</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.2351290007997</v>
+        <v>210.7094337589384</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.3995519893482</v>
+        <v>288.3019431129958</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.1284368521891</v>
+        <v>260.7868102966949</v>
       </c>
       <c r="AD4" t="n">
-        <v>155235.1290007997</v>
+        <v>210709.4337589385</v>
       </c>
       <c r="AE4" t="n">
-        <v>212399.5519893482</v>
+        <v>288301.9431129958</v>
       </c>
       <c r="AF4" t="n">
         <v>2.099825785259058e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>192128.436852189</v>
+        <v>260786.8102966949</v>
       </c>
     </row>
   </sheetData>
@@ -9747,28 +9747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.355959309915</v>
+        <v>412.1200095782286</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.8014948819909</v>
+        <v>563.8807785565734</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.9271065985339</v>
+        <v>510.0647884627766</v>
       </c>
       <c r="AD2" t="n">
-        <v>305355.959309915</v>
+        <v>412120.0095782286</v>
       </c>
       <c r="AE2" t="n">
-        <v>417801.4948819909</v>
+        <v>563880.7785565734</v>
       </c>
       <c r="AF2" t="n">
         <v>8.064010156572919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.78703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>377927.1065985339</v>
+        <v>510064.7884627766</v>
       </c>
     </row>
     <row r="3">
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.3613868484316</v>
+        <v>309.9654966313442</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.92710054678</v>
+        <v>424.1084672036047</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.5845842841778</v>
+        <v>383.6321503336641</v>
       </c>
       <c r="AD3" t="n">
-        <v>232361.3868484316</v>
+        <v>309965.4966313442</v>
       </c>
       <c r="AE3" t="n">
-        <v>317927.10054678</v>
+        <v>424108.4672036048</v>
       </c>
       <c r="AF3" t="n">
         <v>1.03120812192011e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>287584.5842841778</v>
+        <v>383632.1503336641</v>
       </c>
     </row>
     <row r="4">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.5353819163558</v>
+        <v>280.1726460881916</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.1178447682634</v>
+        <v>383.3445747226608</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.6701066009996</v>
+        <v>346.7587065386191</v>
       </c>
       <c r="AD4" t="n">
-        <v>202535.3819163558</v>
+        <v>280172.6460881916</v>
       </c>
       <c r="AE4" t="n">
-        <v>277117.8447682634</v>
+        <v>383344.5747226608</v>
       </c>
       <c r="AF4" t="n">
         <v>1.130319589288974e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>250670.1066009996</v>
+        <v>346758.7065386191</v>
       </c>
     </row>
     <row r="5">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.1412278068763</v>
+        <v>267.0364088909617</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.4738133761646</v>
+        <v>365.3709954595269</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.4692950470222</v>
+        <v>330.5005004542817</v>
       </c>
       <c r="AD5" t="n">
-        <v>199141.2278068763</v>
+        <v>267036.4088909617</v>
       </c>
       <c r="AE5" t="n">
-        <v>272473.8133761646</v>
+        <v>365370.9954595269</v>
       </c>
       <c r="AF5" t="n">
         <v>1.170311681746652e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.31712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>246469.2950470222</v>
+        <v>330500.5004542817</v>
       </c>
     </row>
     <row r="6">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>197.0635521113763</v>
+        <v>264.9587331954616</v>
       </c>
       <c r="AB6" t="n">
-        <v>269.6310458290004</v>
+        <v>362.5282279123612</v>
       </c>
       <c r="AC6" t="n">
-        <v>243.8978372447091</v>
+        <v>327.9290426519681</v>
       </c>
       <c r="AD6" t="n">
-        <v>197063.5521113763</v>
+        <v>264958.7331954616</v>
       </c>
       <c r="AE6" t="n">
-        <v>269631.0458290004</v>
+        <v>362528.2279123612</v>
       </c>
       <c r="AF6" t="n">
         <v>1.192653390168881e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.05092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>243897.8372447091</v>
+        <v>327929.0426519681</v>
       </c>
     </row>
     <row r="7">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.9207263315701</v>
+        <v>263.5238250846249</v>
       </c>
       <c r="AB7" t="n">
-        <v>254.3849400102982</v>
+        <v>360.5649233314362</v>
       </c>
       <c r="AC7" t="n">
-        <v>230.1067983672951</v>
+        <v>326.1531131047313</v>
       </c>
       <c r="AD7" t="n">
-        <v>185920.7263315701</v>
+        <v>263523.8250846249</v>
       </c>
       <c r="AE7" t="n">
-        <v>254384.9400102982</v>
+        <v>360564.9233314362</v>
       </c>
       <c r="AF7" t="n">
         <v>1.206814239706755e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>230106.7983672951</v>
+        <v>326153.1131047313</v>
       </c>
     </row>
     <row r="8">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.4853645754264</v>
+        <v>251.4478654672129</v>
       </c>
       <c r="AB8" t="n">
-        <v>251.0527706149663</v>
+        <v>344.0420626289923</v>
       </c>
       <c r="AC8" t="n">
-        <v>227.0926465423235</v>
+        <v>311.2071710378514</v>
       </c>
       <c r="AD8" t="n">
-        <v>183485.3645754264</v>
+        <v>251447.8654672129</v>
       </c>
       <c r="AE8" t="n">
-        <v>251052.7706149663</v>
+        <v>344042.0626289923</v>
       </c>
       <c r="AF8" t="n">
         <v>1.230140547074358e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.62268518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>227092.6465423235</v>
+        <v>311207.1710378514</v>
       </c>
     </row>
     <row r="9">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>182.3185089358324</v>
+        <v>250.2810098276188</v>
       </c>
       <c r="AB9" t="n">
-        <v>249.4562272508369</v>
+        <v>342.4455192648628</v>
       </c>
       <c r="AC9" t="n">
-        <v>225.6484750361033</v>
+        <v>309.7629995316312</v>
       </c>
       <c r="AD9" t="n">
-        <v>182318.5089358324</v>
+        <v>250281.0098276188</v>
       </c>
       <c r="AE9" t="n">
-        <v>249456.2272508368</v>
+        <v>342445.5192648628</v>
       </c>
       <c r="AF9" t="n">
         <v>1.241231764606067e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.50694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>225648.4750361033</v>
+        <v>309762.9995316312</v>
       </c>
     </row>
     <row r="10">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>181.3661715649847</v>
+        <v>249.2271872302859</v>
       </c>
       <c r="AB10" t="n">
-        <v>248.1531972458841</v>
+        <v>341.0036326958208</v>
       </c>
       <c r="AC10" t="n">
-        <v>224.4698043860088</v>
+        <v>308.4587245930377</v>
       </c>
       <c r="AD10" t="n">
-        <v>181366.1715649847</v>
+        <v>249227.187230286</v>
       </c>
       <c r="AE10" t="n">
-        <v>248153.1972458841</v>
+        <v>341003.6326958208</v>
       </c>
       <c r="AF10" t="n">
         <v>1.246342991484257e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.44907407407407</v>
       </c>
       <c r="AH10" t="n">
-        <v>224469.8043860088</v>
+        <v>308458.7245930377</v>
       </c>
     </row>
     <row r="11">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>180.2315420072131</v>
+        <v>248.0925576725143</v>
       </c>
       <c r="AB11" t="n">
-        <v>246.6007470286184</v>
+        <v>339.4511824785552</v>
       </c>
       <c r="AC11" t="n">
-        <v>223.0655178386009</v>
+        <v>307.0544380456298</v>
       </c>
       <c r="AD11" t="n">
-        <v>180231.5420072131</v>
+        <v>248092.5576725143</v>
       </c>
       <c r="AE11" t="n">
-        <v>246600.7470286184</v>
+        <v>339451.1824785551</v>
       </c>
       <c r="AF11" t="n">
         <v>1.252236105760243e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>223065.5178386009</v>
+        <v>307054.4380456298</v>
       </c>
     </row>
     <row r="12">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>178.8967449841349</v>
+        <v>246.7577606494361</v>
       </c>
       <c r="AB12" t="n">
-        <v>244.7744188545551</v>
+        <v>337.6248543044919</v>
       </c>
       <c r="AC12" t="n">
-        <v>221.4134918622019</v>
+        <v>305.4024120692308</v>
       </c>
       <c r="AD12" t="n">
-        <v>178896.7449841349</v>
+        <v>246757.7606494361</v>
       </c>
       <c r="AE12" t="n">
-        <v>244774.4188545551</v>
+        <v>337624.8543044919</v>
       </c>
       <c r="AF12" t="n">
         <v>1.261879383666403e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.27546296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>221413.4918622019</v>
+        <v>305402.4120692308</v>
       </c>
     </row>
     <row r="13">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>178.8022148341835</v>
+        <v>246.6632304994847</v>
       </c>
       <c r="AB13" t="n">
-        <v>244.6450785330159</v>
+        <v>337.4955139829526</v>
       </c>
       <c r="AC13" t="n">
-        <v>221.2964955994201</v>
+        <v>305.285415806449</v>
       </c>
       <c r="AD13" t="n">
-        <v>178802.2148341835</v>
+        <v>246663.2304994848</v>
       </c>
       <c r="AE13" t="n">
-        <v>244645.0785330159</v>
+        <v>337495.5139829526</v>
       </c>
       <c r="AF13" t="n">
         <v>1.256855033165746e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>221296.4955994201</v>
+        <v>305285.415806449</v>
       </c>
     </row>
     <row r="14">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>178.94051168347</v>
+        <v>246.8015273487712</v>
       </c>
       <c r="AB14" t="n">
-        <v>244.8343023834359</v>
+        <v>337.6847378333727</v>
       </c>
       <c r="AC14" t="n">
-        <v>221.4676601911334</v>
+        <v>305.4565803981623</v>
       </c>
       <c r="AD14" t="n">
-        <v>178940.51168347</v>
+        <v>246801.5273487712</v>
       </c>
       <c r="AE14" t="n">
-        <v>244834.3023834359</v>
+        <v>337684.7378333727</v>
       </c>
       <c r="AF14" t="n">
         <v>1.256073145767949e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.34490740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>221467.6601911334</v>
+        <v>305456.5803981623</v>
       </c>
     </row>
   </sheetData>
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.253304507015</v>
+        <v>219.5799330489136</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.4244205187987</v>
+        <v>300.4389515803432</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.1509319640919</v>
+        <v>271.7654797103208</v>
       </c>
       <c r="AD2" t="n">
-        <v>155253.304507015</v>
+        <v>219579.9330489136</v>
       </c>
       <c r="AE2" t="n">
-        <v>212424.4205187987</v>
+        <v>300438.9515803432</v>
       </c>
       <c r="AF2" t="n">
         <v>2.175269671680926e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.80787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>192150.9319640919</v>
+        <v>271765.4797103208</v>
       </c>
     </row>
     <row r="3">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.5991079441542</v>
+        <v>216.8242512595676</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.7928316866061</v>
+        <v>296.6685061840614</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.8659368730757</v>
+        <v>268.3548803308055</v>
       </c>
       <c r="AD3" t="n">
-        <v>152599.1079441542</v>
+        <v>216824.2512595676</v>
       </c>
       <c r="AE3" t="n">
-        <v>208792.8316866061</v>
+        <v>296668.5061840613</v>
       </c>
       <c r="AF3" t="n">
         <v>2.266917074832202e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>188865.9368730757</v>
+        <v>268354.8803308056</v>
       </c>
     </row>
   </sheetData>
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.1702097581921</v>
+        <v>342.3988840028284</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.5033824230334</v>
+        <v>468.4852586653352</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.0518315392706</v>
+        <v>423.773683101505</v>
       </c>
       <c r="AD2" t="n">
-        <v>256170.2097581921</v>
+        <v>342398.8840028284</v>
       </c>
       <c r="AE2" t="n">
-        <v>350503.3824230334</v>
+        <v>468485.2586653352</v>
       </c>
       <c r="AF2" t="n">
         <v>1.020627804515721e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>317051.8315392706</v>
+        <v>423773.683101505</v>
       </c>
     </row>
     <row r="3">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.0816118067485</v>
+        <v>273.1675639029787</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.9699529529175</v>
+        <v>373.7599122344378</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.0591363904884</v>
+        <v>338.0887907861137</v>
       </c>
       <c r="AD3" t="n">
-        <v>206081.6118067485</v>
+        <v>273167.5639029787</v>
       </c>
       <c r="AE3" t="n">
-        <v>281969.9529529175</v>
+        <v>373759.9122344378</v>
       </c>
       <c r="AF3" t="n">
         <v>1.240455083425073e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.05787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>255059.1363904884</v>
+        <v>338088.7907861137</v>
       </c>
     </row>
     <row r="4">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.8489309121047</v>
+        <v>257.9007175895507</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.1279269344239</v>
+        <v>352.8711395825143</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.206244083226</v>
+        <v>319.1936132786195</v>
       </c>
       <c r="AD4" t="n">
-        <v>190848.9309121047</v>
+        <v>257900.7175895507</v>
       </c>
       <c r="AE4" t="n">
-        <v>261127.9269344239</v>
+        <v>352871.1395825144</v>
       </c>
       <c r="AF4" t="n">
         <v>1.31712438466377e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>236206.244083226</v>
+        <v>319193.6132786195</v>
       </c>
     </row>
     <row r="5">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.4116712551233</v>
+        <v>245.5307777402738</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.1107195785793</v>
+        <v>335.9460421575112</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.8131351136172</v>
+        <v>303.8838233973298</v>
       </c>
       <c r="AD5" t="n">
-        <v>178411.6712551233</v>
+        <v>245530.7777402738</v>
       </c>
       <c r="AE5" t="n">
-        <v>244110.7195785793</v>
+        <v>335946.0421575112</v>
       </c>
       <c r="AF5" t="n">
         <v>1.352216078728198e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.80787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>220813.1351136172</v>
+        <v>303883.8233973298</v>
       </c>
     </row>
     <row r="6">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.4969119886339</v>
+        <v>243.6160184737843</v>
       </c>
       <c r="AB6" t="n">
-        <v>241.4908614769527</v>
+        <v>333.3261840558847</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.4433125922151</v>
+        <v>301.5140008759278</v>
       </c>
       <c r="AD6" t="n">
-        <v>176496.9119886339</v>
+        <v>243616.0184737843</v>
       </c>
       <c r="AE6" t="n">
-        <v>241490.8614769527</v>
+        <v>333326.1840558847</v>
       </c>
       <c r="AF6" t="n">
         <v>1.376013894243156e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.57638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>218443.3125922151</v>
+        <v>301514.0008759277</v>
       </c>
     </row>
     <row r="7">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.9771400888242</v>
+        <v>240.9947613474894</v>
       </c>
       <c r="AB7" t="n">
-        <v>238.0431983991442</v>
+        <v>329.739664413987</v>
       </c>
       <c r="AC7" t="n">
-        <v>215.324689639726</v>
+        <v>298.2697736349397</v>
       </c>
       <c r="AD7" t="n">
-        <v>173977.1400888242</v>
+        <v>240994.7613474894</v>
       </c>
       <c r="AE7" t="n">
-        <v>238043.1983991443</v>
+        <v>329739.664413987</v>
       </c>
       <c r="AF7" t="n">
         <v>1.404087249494698e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>215324.689639726</v>
+        <v>298269.7736349397</v>
       </c>
     </row>
     <row r="8">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>172.3090000702481</v>
+        <v>229.806508382882</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.7607756325859</v>
+        <v>314.4314031169338</v>
       </c>
       <c r="AC8" t="n">
-        <v>213.2600980986068</v>
+        <v>284.4225113107928</v>
       </c>
       <c r="AD8" t="n">
-        <v>172309.0000702481</v>
+        <v>229806.508382882</v>
       </c>
       <c r="AE8" t="n">
-        <v>235760.7756325859</v>
+        <v>314431.4031169338</v>
       </c>
       <c r="AF8" t="n">
         <v>1.418043256559402e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.1712962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>213260.0980986068</v>
+        <v>284422.5113107928</v>
       </c>
     </row>
     <row r="9">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>171.4912529563374</v>
+        <v>228.9887612689713</v>
       </c>
       <c r="AB9" t="n">
-        <v>234.6418979548773</v>
+        <v>313.3125254392252</v>
       </c>
       <c r="AC9" t="n">
-        <v>212.2480045361037</v>
+        <v>283.4104177482897</v>
       </c>
       <c r="AD9" t="n">
-        <v>171491.2529563374</v>
+        <v>228988.7612689713</v>
       </c>
       <c r="AE9" t="n">
-        <v>234641.8979548773</v>
+        <v>313312.5254392253</v>
       </c>
       <c r="AF9" t="n">
         <v>1.42580376453411e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>212248.0045361037</v>
+        <v>283410.4177482897</v>
       </c>
     </row>
     <row r="10">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>171.6771808658638</v>
+        <v>229.1746891784977</v>
       </c>
       <c r="AB10" t="n">
-        <v>234.8962927232517</v>
+        <v>313.5669202075997</v>
       </c>
       <c r="AC10" t="n">
-        <v>212.4781202248298</v>
+        <v>283.6405334370158</v>
       </c>
       <c r="AD10" t="n">
-        <v>171677.1808658638</v>
+        <v>229174.6891784977</v>
       </c>
       <c r="AE10" t="n">
-        <v>234896.2927232517</v>
+        <v>313566.9202075996</v>
       </c>
       <c r="AF10" t="n">
         <v>1.424464633220387e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.11342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>212478.1202248298</v>
+        <v>283640.5334370158</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.4288140413851</v>
+        <v>376.9397183756847</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.6950750175528</v>
+        <v>515.7455520883427</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.0757555772968</v>
+        <v>466.5235204504592</v>
       </c>
       <c r="AD2" t="n">
-        <v>280428.8140413851</v>
+        <v>376939.7183756846</v>
       </c>
       <c r="AE2" t="n">
-        <v>383695.0750175528</v>
+        <v>515745.5520883427</v>
       </c>
       <c r="AF2" t="n">
         <v>9.017808220003178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.54861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>347075.7555772968</v>
+        <v>466523.5204504592</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.0268711799004</v>
+        <v>291.2355946473426</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.8410073473635</v>
+        <v>398.4813890041358</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.8926726111526</v>
+        <v>360.4508845097224</v>
       </c>
       <c r="AD3" t="n">
-        <v>214026.8711799004</v>
+        <v>291235.5946473426</v>
       </c>
       <c r="AE3" t="n">
-        <v>292841.0073473635</v>
+        <v>398481.3890041359</v>
       </c>
       <c r="AF3" t="n">
         <v>1.128299684877893e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>264892.6726111526</v>
+        <v>360450.8845097224</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.8294851329165</v>
+        <v>264.4212835857093</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.3107850627657</v>
+        <v>361.7928656456947</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.6081417165149</v>
+        <v>327.2638623279449</v>
       </c>
       <c r="AD4" t="n">
-        <v>196829.4851329165</v>
+        <v>264421.2835857093</v>
       </c>
       <c r="AE4" t="n">
-        <v>269310.7850627656</v>
+        <v>361792.8656456947</v>
       </c>
       <c r="AF4" t="n">
         <v>1.214146587529559e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>243608.1417165149</v>
+        <v>327263.8623279449</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.3268689618542</v>
+        <v>260.4672615917344</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.8359099241439</v>
+        <v>356.3827983143992</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.8964827314672</v>
+        <v>322.370124229671</v>
       </c>
       <c r="AD5" t="n">
-        <v>183326.8689618543</v>
+        <v>260467.2615917344</v>
       </c>
       <c r="AE5" t="n">
-        <v>250835.9099241439</v>
+        <v>356382.7983143991</v>
       </c>
       <c r="AF5" t="n">
         <v>1.262377409012233e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>226896.4827314672</v>
+        <v>322370.124229671</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>181.3104237503738</v>
+        <v>248.8680567843826</v>
       </c>
       <c r="AB6" t="n">
-        <v>248.0769206265136</v>
+        <v>340.512254576019</v>
       </c>
       <c r="AC6" t="n">
-        <v>224.400807500136</v>
+        <v>308.014242911336</v>
       </c>
       <c r="AD6" t="n">
-        <v>181310.4237503739</v>
+        <v>248868.0567843826</v>
       </c>
       <c r="AE6" t="n">
-        <v>248076.9206265135</v>
+        <v>340512.254576019</v>
       </c>
       <c r="AF6" t="n">
         <v>1.285434391558733e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.71527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>224400.807500136</v>
+        <v>308014.242911336</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>179.8026470913304</v>
+        <v>247.3602801253391</v>
       </c>
       <c r="AB7" t="n">
-        <v>246.0139140831998</v>
+        <v>338.4492480327052</v>
       </c>
       <c r="AC7" t="n">
-        <v>222.5346914058676</v>
+        <v>306.1481268170676</v>
       </c>
       <c r="AD7" t="n">
-        <v>179802.6470913304</v>
+        <v>247360.2801253391</v>
       </c>
       <c r="AE7" t="n">
-        <v>246013.9140831998</v>
+        <v>338449.2480327052</v>
       </c>
       <c r="AF7" t="n">
         <v>1.297602508503683e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.58796296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>222534.6914058676</v>
+        <v>306148.1268170676</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>178.464293281482</v>
+        <v>245.9204410890055</v>
       </c>
       <c r="AB8" t="n">
-        <v>244.1827193565632</v>
+        <v>336.4791967419793</v>
       </c>
       <c r="AC8" t="n">
-        <v>220.8782633338427</v>
+        <v>304.3660944565437</v>
       </c>
       <c r="AD8" t="n">
-        <v>178464.293281482</v>
+        <v>245920.4410890055</v>
       </c>
       <c r="AE8" t="n">
-        <v>244182.7193565632</v>
+        <v>336479.1967419793</v>
       </c>
       <c r="AF8" t="n">
         <v>1.310821439052139e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.44907407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>220878.2633338427</v>
+        <v>304366.0944565437</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>176.7531323755365</v>
+        <v>244.20928018306</v>
       </c>
       <c r="AB9" t="n">
-        <v>241.8414335139583</v>
+        <v>334.1379108993745</v>
       </c>
       <c r="AC9" t="n">
-        <v>218.76042652604</v>
+        <v>302.248257648741</v>
       </c>
       <c r="AD9" t="n">
-        <v>176753.1323755365</v>
+        <v>244209.28018306</v>
       </c>
       <c r="AE9" t="n">
-        <v>241841.4335139584</v>
+        <v>334137.9108993745</v>
       </c>
       <c r="AF9" t="n">
         <v>1.326751164113988e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>218760.42652604</v>
+        <v>302248.257648741</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>175.6738420636587</v>
+        <v>243.1299898711822</v>
       </c>
       <c r="AB10" t="n">
-        <v>240.3647008943199</v>
+        <v>332.6611782797361</v>
       </c>
       <c r="AC10" t="n">
-        <v>217.4246311950121</v>
+        <v>300.9124623177131</v>
       </c>
       <c r="AD10" t="n">
-        <v>175673.8420636587</v>
+        <v>243129.9898711822</v>
       </c>
       <c r="AE10" t="n">
-        <v>240364.7008943199</v>
+        <v>332661.1782797361</v>
       </c>
       <c r="AF10" t="n">
         <v>1.331517898286415e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>217424.6311950121</v>
+        <v>300912.4623177131</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>174.7948912761704</v>
+        <v>232.6682794878257</v>
       </c>
       <c r="AB11" t="n">
-        <v>239.162081650307</v>
+        <v>318.3470045951465</v>
       </c>
       <c r="AC11" t="n">
-        <v>216.3367882437607</v>
+        <v>287.9644132795073</v>
       </c>
       <c r="AD11" t="n">
-        <v>174794.8912761704</v>
+        <v>232668.2794878257</v>
       </c>
       <c r="AE11" t="n">
-        <v>239162.081650307</v>
+        <v>318347.0045951465</v>
       </c>
       <c r="AF11" t="n">
         <v>1.337259300149051e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.18287037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>216336.7882437607</v>
+        <v>287964.4132795073</v>
       </c>
     </row>
   </sheetData>
@@ -14115,28 +14115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.3673629460571</v>
+        <v>449.6912278828358</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.4421301648499</v>
+        <v>615.2873769661064</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.7346707245748</v>
+        <v>556.5652132697177</v>
       </c>
       <c r="AD2" t="n">
-        <v>342367.3629460572</v>
+        <v>449691.2278828358</v>
       </c>
       <c r="AE2" t="n">
-        <v>468442.1301648499</v>
+        <v>615287.3769661065</v>
       </c>
       <c r="AF2" t="n">
         <v>7.226224234453077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.17592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>423734.6707245748</v>
+        <v>556565.2132697176</v>
       </c>
     </row>
     <row r="3">
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.6034253326731</v>
+        <v>331.6729507579221</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.9913947335031</v>
+        <v>453.8095636048762</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.8750230257223</v>
+        <v>410.4986157801488</v>
       </c>
       <c r="AD3" t="n">
-        <v>253603.4253326731</v>
+        <v>331672.9507579221</v>
       </c>
       <c r="AE3" t="n">
-        <v>346991.3947335031</v>
+        <v>453809.5636048762</v>
       </c>
       <c r="AF3" t="n">
         <v>9.339947084648101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.15277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>313875.0230257222</v>
+        <v>410498.6157801488</v>
       </c>
     </row>
     <row r="4">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.2401044662259</v>
+        <v>297.2412990539129</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.9739831213311</v>
+        <v>406.6986587261845</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.3448871884494</v>
+        <v>367.8839095425091</v>
       </c>
       <c r="AD4" t="n">
-        <v>219240.1044662259</v>
+        <v>297241.2990539129</v>
       </c>
       <c r="AE4" t="n">
-        <v>299973.9831213311</v>
+        <v>406698.6587261845</v>
       </c>
       <c r="AF4" t="n">
         <v>1.049731694498543e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.2662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>271344.8871884494</v>
+        <v>367883.9095425091</v>
       </c>
     </row>
     <row r="5">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.3022305643118</v>
+        <v>283.370744959703</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.9035691531424</v>
+        <v>387.7203546888273</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.0945267638844</v>
+        <v>350.7168682062604</v>
       </c>
       <c r="AD5" t="n">
-        <v>205302.2305643118</v>
+        <v>283370.744959703</v>
       </c>
       <c r="AE5" t="n">
-        <v>280903.5691531424</v>
+        <v>387720.3546888273</v>
       </c>
       <c r="AF5" t="n">
         <v>1.091097976109643e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>254094.5267638844</v>
+        <v>350716.8682062604</v>
       </c>
     </row>
     <row r="6">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.4135948323307</v>
+        <v>270.6861198620271</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.9512103070335</v>
+        <v>370.3646910240229</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.5193754988764</v>
+        <v>335.017604722798</v>
       </c>
       <c r="AD6" t="n">
-        <v>202413.5948323307</v>
+        <v>270686.1198620271</v>
       </c>
       <c r="AE6" t="n">
-        <v>276951.2103070335</v>
+        <v>370364.6910240229</v>
       </c>
       <c r="AF6" t="n">
         <v>1.120309105359784e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>250519.3754988764</v>
+        <v>335017.604722798</v>
       </c>
     </row>
     <row r="7">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.2843799801437</v>
+        <v>268.5569050098401</v>
       </c>
       <c r="AB7" t="n">
-        <v>274.037924611943</v>
+        <v>367.4514053289309</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.8841297017023</v>
+        <v>332.3823589256234</v>
       </c>
       <c r="AD7" t="n">
-        <v>200284.3799801437</v>
+        <v>268556.9050098401</v>
       </c>
       <c r="AE7" t="n">
-        <v>274037.924611943</v>
+        <v>367451.4053289309</v>
       </c>
       <c r="AF7" t="n">
         <v>1.141075310987846e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.03935185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>247884.1297017023</v>
+        <v>332382.3589256234</v>
       </c>
     </row>
     <row r="8">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.3574412810782</v>
+        <v>267.3917902576884</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.0872050213758</v>
+        <v>365.8572439238018</v>
       </c>
       <c r="AC8" t="n">
-        <v>234.3602858053874</v>
+        <v>330.9403420475802</v>
       </c>
       <c r="AD8" t="n">
-        <v>189357.4412810782</v>
+        <v>267391.7902576884</v>
       </c>
       <c r="AE8" t="n">
-        <v>259087.2050213758</v>
+        <v>365857.2439238018</v>
       </c>
       <c r="AF8" t="n">
         <v>1.150240129738364e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.93518518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>234360.2858053874</v>
+        <v>330940.3420475802</v>
       </c>
     </row>
     <row r="9">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>187.9022259952858</v>
+        <v>256.2420708326832</v>
       </c>
       <c r="AB9" t="n">
-        <v>257.0961152677882</v>
+        <v>350.6017059154388</v>
       </c>
       <c r="AC9" t="n">
-        <v>232.5592228633695</v>
+        <v>317.1407711755588</v>
       </c>
       <c r="AD9" t="n">
-        <v>187902.2259952858</v>
+        <v>256242.0708326832</v>
       </c>
       <c r="AE9" t="n">
-        <v>257096.1152677882</v>
+        <v>350601.7059154388</v>
       </c>
       <c r="AF9" t="n">
         <v>1.162533723470177e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.78472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>232559.2228633695</v>
+        <v>317140.7711755588</v>
       </c>
     </row>
     <row r="10">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>186.5265519112847</v>
+        <v>254.8663967486821</v>
       </c>
       <c r="AB10" t="n">
-        <v>255.2138572956016</v>
+        <v>348.7194479432522</v>
       </c>
       <c r="AC10" t="n">
-        <v>230.8566049502822</v>
+        <v>315.4381532624714</v>
       </c>
       <c r="AD10" t="n">
-        <v>186526.5519112847</v>
+        <v>254866.3967486821</v>
       </c>
       <c r="AE10" t="n">
-        <v>255213.8572956016</v>
+        <v>348719.4479432522</v>
       </c>
       <c r="AF10" t="n">
         <v>1.173567500727221e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.65740740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>230856.6049502822</v>
+        <v>315438.1532624714</v>
       </c>
     </row>
     <row r="11">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>185.3506308753022</v>
+        <v>253.6904757126996</v>
       </c>
       <c r="AB11" t="n">
-        <v>253.6049102561965</v>
+        <v>347.110500903847</v>
       </c>
       <c r="AC11" t="n">
-        <v>229.4012135581459</v>
+        <v>313.9827618703352</v>
       </c>
       <c r="AD11" t="n">
-        <v>185350.6308753022</v>
+        <v>253690.4757126996</v>
       </c>
       <c r="AE11" t="n">
-        <v>253604.9102561965</v>
+        <v>347110.500903847</v>
       </c>
       <c r="AF11" t="n">
         <v>1.181430970591713e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.56481481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>229401.2135581459</v>
+        <v>313982.7618703352</v>
       </c>
     </row>
     <row r="12">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>184.5694294912381</v>
+        <v>252.9092743286356</v>
       </c>
       <c r="AB12" t="n">
-        <v>252.5360360583479</v>
+        <v>346.0416267059985</v>
       </c>
       <c r="AC12" t="n">
-        <v>228.4343512135653</v>
+        <v>313.0158995257545</v>
       </c>
       <c r="AD12" t="n">
-        <v>184569.4294912381</v>
+        <v>252909.2743286356</v>
       </c>
       <c r="AE12" t="n">
-        <v>252536.0360583478</v>
+        <v>346041.6267059984</v>
       </c>
       <c r="AF12" t="n">
         <v>1.185514991031899e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.51851851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>228434.3512135653</v>
+        <v>313015.8995257546</v>
       </c>
     </row>
     <row r="13">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>183.5514670383982</v>
+        <v>251.7898266493104</v>
       </c>
       <c r="AB13" t="n">
-        <v>251.1432149210391</v>
+        <v>344.5099490046004</v>
       </c>
       <c r="AC13" t="n">
-        <v>227.1744589707641</v>
+        <v>311.6304029944544</v>
       </c>
       <c r="AD13" t="n">
-        <v>183551.4670383982</v>
+        <v>251789.8266493104</v>
       </c>
       <c r="AE13" t="n">
-        <v>251143.2149210391</v>
+        <v>344509.9490046004</v>
       </c>
       <c r="AF13" t="n">
         <v>1.191952514776598e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH13" t="n">
-        <v>227174.4589707641</v>
+        <v>311630.4029944544</v>
       </c>
     </row>
     <row r="14">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>182.8496484183006</v>
+        <v>251.0880080292128</v>
       </c>
       <c r="AB14" t="n">
-        <v>250.1829557229697</v>
+        <v>343.5496898065311</v>
       </c>
       <c r="AC14" t="n">
-        <v>226.3058455628259</v>
+        <v>310.7617895865162</v>
       </c>
       <c r="AD14" t="n">
-        <v>182849.6484183006</v>
+        <v>251088.0080292128</v>
       </c>
       <c r="AE14" t="n">
-        <v>250182.9557229697</v>
+        <v>343549.6898065311</v>
       </c>
       <c r="AF14" t="n">
         <v>1.192257085792477e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH14" t="n">
-        <v>226305.8455628259</v>
+        <v>310761.7895865162</v>
       </c>
     </row>
     <row r="15">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>182.1958984762961</v>
+        <v>250.4342580872083</v>
       </c>
       <c r="AB15" t="n">
-        <v>249.2884662109077</v>
+        <v>342.655200294469</v>
       </c>
       <c r="AC15" t="n">
-        <v>225.4967248743709</v>
+        <v>309.9526688980612</v>
       </c>
       <c r="AD15" t="n">
-        <v>182195.8984762961</v>
+        <v>250434.2580872083</v>
       </c>
       <c r="AE15" t="n">
-        <v>249288.4662109077</v>
+        <v>342655.200294469</v>
       </c>
       <c r="AF15" t="n">
         <v>1.197905493723309e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>225496.7248743709</v>
+        <v>309952.6688980612</v>
       </c>
     </row>
     <row r="16">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>182.2311618172285</v>
+        <v>250.4695214281407</v>
       </c>
       <c r="AB16" t="n">
-        <v>249.3367150696802</v>
+        <v>342.7034491532415</v>
       </c>
       <c r="AC16" t="n">
-        <v>225.5403689297798</v>
+        <v>309.9963129534701</v>
       </c>
       <c r="AD16" t="n">
-        <v>182231.1618172285</v>
+        <v>250469.5214281407</v>
       </c>
       <c r="AE16" t="n">
-        <v>249336.7150696802</v>
+        <v>342703.4491532415</v>
       </c>
       <c r="AF16" t="n">
         <v>1.198334661972956e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.36805555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>225540.3689297798</v>
+        <v>309996.3129534701</v>
       </c>
     </row>
   </sheetData>
@@ -15896,28 +15896,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6764763578651</v>
+        <v>319.2526690342373</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.7264640312405</v>
+        <v>436.8155862063729</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.2122190431044</v>
+        <v>395.1265197333616</v>
       </c>
       <c r="AD2" t="n">
-        <v>233676.4763578651</v>
+        <v>319252.6690342373</v>
       </c>
       <c r="AE2" t="n">
-        <v>319726.4640312405</v>
+        <v>436815.5862063729</v>
       </c>
       <c r="AF2" t="n">
         <v>1.161532079370963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>289212.2190431044</v>
+        <v>395126.5197333617</v>
       </c>
     </row>
     <row r="3">
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.8972995822519</v>
+        <v>265.0210700771219</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.4576188490229</v>
+        <v>362.6135199839578</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.7907864536939</v>
+        <v>328.0061945679598</v>
       </c>
       <c r="AD3" t="n">
-        <v>188897.2995822519</v>
+        <v>265021.0700771218</v>
       </c>
       <c r="AE3" t="n">
-        <v>258457.6188490229</v>
+        <v>362613.5199839578</v>
       </c>
       <c r="AF3" t="n">
         <v>1.373504219440712e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>233790.7864536939</v>
+        <v>328006.1945679598</v>
       </c>
     </row>
     <row r="4">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.280780066223</v>
+        <v>240.9189739906645</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.4586520118714</v>
+        <v>329.635968808877</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.7004929427474</v>
+        <v>298.1759745928436</v>
       </c>
       <c r="AD4" t="n">
-        <v>174280.780066223</v>
+        <v>240918.9739906645</v>
       </c>
       <c r="AE4" t="n">
-        <v>238458.6520118714</v>
+        <v>329635.9688088769</v>
       </c>
       <c r="AF4" t="n">
         <v>1.452083372163197e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.76157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>215700.4929427475</v>
+        <v>298175.9745928436</v>
       </c>
     </row>
     <row r="5">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.7842485930536</v>
+        <v>238.32095729101</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.0427875110874</v>
+        <v>326.0812477440037</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.6106337557213</v>
+        <v>294.9605111173184</v>
       </c>
       <c r="AD5" t="n">
-        <v>171784.2485930536</v>
+        <v>238320.95729101</v>
       </c>
       <c r="AE5" t="n">
-        <v>235042.7875110874</v>
+        <v>326081.2477440037</v>
       </c>
       <c r="AF5" t="n">
         <v>1.487187698242164e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.42592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>212610.6337557213</v>
+        <v>294960.5111173184</v>
       </c>
     </row>
     <row r="6">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.6057463080032</v>
+        <v>226.6910438543152</v>
       </c>
       <c r="AB6" t="n">
-        <v>232.0620645759451</v>
+        <v>310.1686871043562</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.9143868340371</v>
+        <v>280.5666229316947</v>
       </c>
       <c r="AD6" t="n">
-        <v>169605.7463080032</v>
+        <v>226691.0438543152</v>
       </c>
       <c r="AE6" t="n">
-        <v>232062.0645759451</v>
+        <v>310168.6871043562</v>
       </c>
       <c r="AF6" t="n">
         <v>1.515543847577337e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.18287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>209914.3868340371</v>
+        <v>280566.6229316947</v>
       </c>
     </row>
     <row r="7">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>167.9690379097489</v>
+        <v>225.0543354560609</v>
       </c>
       <c r="AB7" t="n">
-        <v>229.8226479389763</v>
+        <v>307.9292704673873</v>
       </c>
       <c r="AC7" t="n">
-        <v>207.8886969778588</v>
+        <v>278.5409330755164</v>
       </c>
       <c r="AD7" t="n">
-        <v>167969.0379097489</v>
+        <v>225054.3354560609</v>
       </c>
       <c r="AE7" t="n">
-        <v>229822.6479389763</v>
+        <v>307929.2704673873</v>
       </c>
       <c r="AF7" t="n">
         <v>1.530265573312518e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>207888.6969778588</v>
+        <v>278540.9330755164</v>
       </c>
     </row>
     <row r="8">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.9690131185646</v>
+        <v>225.0543106648765</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.8226140185841</v>
+        <v>307.9292365469952</v>
       </c>
       <c r="AC8" t="n">
-        <v>207.8886662947813</v>
+        <v>278.5409023924389</v>
       </c>
       <c r="AD8" t="n">
-        <v>167969.0131185646</v>
+        <v>225054.3106648765</v>
       </c>
       <c r="AE8" t="n">
-        <v>229822.6140185841</v>
+        <v>307929.2365469952</v>
       </c>
       <c r="AF8" t="n">
         <v>1.527624982412773e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>207888.6662947813</v>
+        <v>278540.9023924389</v>
       </c>
     </row>
   </sheetData>
@@ -16829,28 +16829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.043606638089</v>
+        <v>271.2510735872659</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.2355114356309</v>
+        <v>371.1376856348939</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.6354906951975</v>
+        <v>335.7168258129122</v>
       </c>
       <c r="AD2" t="n">
-        <v>196043.606638089</v>
+        <v>271251.0735872659</v>
       </c>
       <c r="AE2" t="n">
-        <v>268235.5114356309</v>
+        <v>371137.6856348939</v>
       </c>
       <c r="AF2" t="n">
         <v>1.462960405201088e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>242635.4906951975</v>
+        <v>335716.8258129122</v>
       </c>
     </row>
     <row r="3">
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.1926808308316</v>
+        <v>232.9992144113585</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.7604019331452</v>
+        <v>318.7998043573422</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.9278302399523</v>
+        <v>288.3739984679077</v>
       </c>
       <c r="AD3" t="n">
-        <v>167192.6808308316</v>
+        <v>232999.2144113585</v>
       </c>
       <c r="AE3" t="n">
-        <v>228760.4019331452</v>
+        <v>318799.8043573422</v>
       </c>
       <c r="AF3" t="n">
         <v>1.659067119387579e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>206927.8302399523</v>
+        <v>288373.9984679077</v>
       </c>
     </row>
     <row r="4">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.3080255694816</v>
+        <v>230.0130739235232</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.8134893425596</v>
+        <v>314.7140352026674</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.3576054474844</v>
+        <v>284.6781693869407</v>
       </c>
       <c r="AD4" t="n">
-        <v>164308.0255694816</v>
+        <v>230013.0739235232</v>
       </c>
       <c r="AE4" t="n">
-        <v>224813.4893425596</v>
+        <v>314714.0352026674</v>
       </c>
       <c r="AF4" t="n">
         <v>1.711385792460848e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.27546296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>203357.6054474844</v>
+        <v>284678.1693869407</v>
       </c>
     </row>
     <row r="5">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.1508724979961</v>
+        <v>218.5233183209526</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.8619773432777</v>
+        <v>298.9932446949957</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.6877816109398</v>
+        <v>270.4577490610481</v>
       </c>
       <c r="AD5" t="n">
-        <v>162150.8724979961</v>
+        <v>218523.3183209526</v>
       </c>
       <c r="AE5" t="n">
-        <v>221861.9773432777</v>
+        <v>298993.2446949957</v>
       </c>
       <c r="AF5" t="n">
         <v>1.744178179072039e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>200687.7816109398</v>
+        <v>270457.7490610481</v>
       </c>
     </row>
     <row r="6">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.329012350584</v>
+        <v>218.7014581735405</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.1057161485639</v>
+        <v>299.236983500282</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.9082583267392</v>
+        <v>270.6782257768475</v>
       </c>
       <c r="AD6" t="n">
-        <v>162329.012350584</v>
+        <v>218701.4581735405</v>
       </c>
       <c r="AE6" t="n">
-        <v>222105.7161485639</v>
+        <v>299236.9835002819</v>
       </c>
       <c r="AF6" t="n">
         <v>1.741038273711302e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.04398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>200908.2583267392</v>
+        <v>270678.2257768475</v>
       </c>
     </row>
   </sheetData>
@@ -31891,28 +31891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.4458373588633</v>
+        <v>251.8594112812999</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.7892230321326</v>
+        <v>344.6051577679457</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.6177603428309</v>
+        <v>311.7165251670523</v>
       </c>
       <c r="AD2" t="n">
-        <v>177445.8373588633</v>
+        <v>251859.4112812999</v>
       </c>
       <c r="AE2" t="n">
-        <v>242789.2230321326</v>
+        <v>344605.1577679457</v>
       </c>
       <c r="AF2" t="n">
         <v>1.705624099166113e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>219617.7603428309</v>
+        <v>311716.5251670523</v>
       </c>
     </row>
     <row r="3">
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.5107595790613</v>
+        <v>224.5510462761413</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.2496583740312</v>
+        <v>307.2406480078702</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.4202172941956</v>
+        <v>277.9180317770477</v>
       </c>
       <c r="AD3" t="n">
-        <v>159510.7595790613</v>
+        <v>224551.0462761413</v>
       </c>
       <c r="AE3" t="n">
-        <v>218249.6583740312</v>
+        <v>307240.6480078702</v>
       </c>
       <c r="AF3" t="n">
         <v>1.91254873726448e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>197420.2172941956</v>
+        <v>277918.0317770477</v>
       </c>
     </row>
     <row r="4">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.6245540714272</v>
+        <v>213.4272041884166</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.6688687849733</v>
+        <v>292.0205165141752</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.0857346413556</v>
+        <v>264.1504882715175</v>
       </c>
       <c r="AD4" t="n">
-        <v>157624.5540714271</v>
+        <v>213427.2041884166</v>
       </c>
       <c r="AE4" t="n">
-        <v>215668.8687849733</v>
+        <v>292020.5165141752</v>
       </c>
       <c r="AF4" t="n">
         <v>1.956516641514798e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.03240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>195085.7346413556</v>
+        <v>264150.4882715175</v>
       </c>
     </row>
   </sheetData>
@@ -32400,28 +32400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.2426106975639</v>
+        <v>212.9651336364005</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.2003240756159</v>
+        <v>291.3882911997931</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.711731742852</v>
+        <v>263.5786016538059</v>
       </c>
       <c r="AD2" t="n">
-        <v>149242.6106975639</v>
+        <v>212965.1336364005</v>
       </c>
       <c r="AE2" t="n">
-        <v>204200.3240756159</v>
+        <v>291388.291199793</v>
       </c>
       <c r="AF2" t="n">
         <v>2.503054545348616e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.4837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>184711.731742852</v>
+        <v>263578.6016538059</v>
       </c>
     </row>
     <row r="3">
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.6618878283963</v>
+        <v>213.4858959937181</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.773997543222</v>
+        <v>292.1008212314885</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.2306546198658</v>
+        <v>264.2231288193187</v>
       </c>
       <c r="AD3" t="n">
-        <v>149661.8878283963</v>
+        <v>213485.8959937181</v>
       </c>
       <c r="AE3" t="n">
-        <v>204773.997543222</v>
+        <v>292100.8212314884</v>
       </c>
       <c r="AF3" t="n">
         <v>2.492473578328382e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.53009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>185230.6546198658</v>
+        <v>264223.1288193187</v>
       </c>
     </row>
   </sheetData>
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.91773880775</v>
+        <v>359.0879253111411</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.7356493487766</v>
+        <v>491.3199412519079</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.4029838670834</v>
+        <v>444.4290556306935</v>
       </c>
       <c r="AD2" t="n">
-        <v>262917.73880775</v>
+        <v>359087.9253111411</v>
       </c>
       <c r="AE2" t="n">
-        <v>359735.6493487766</v>
+        <v>491319.941251908</v>
       </c>
       <c r="AF2" t="n">
         <v>9.606456275233834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.86574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>325402.9838670834</v>
+        <v>444429.0556306936</v>
       </c>
     </row>
     <row r="3">
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.0615279426709</v>
+        <v>286.9235242539259</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.4154497915919</v>
+        <v>392.5814240567435</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.9849226536842</v>
+        <v>355.1140039362563</v>
       </c>
       <c r="AD3" t="n">
-        <v>210061.5279426709</v>
+        <v>286923.5242539259</v>
       </c>
       <c r="AE3" t="n">
-        <v>287415.4497915918</v>
+        <v>392581.4240567435</v>
       </c>
       <c r="AF3" t="n">
         <v>1.181984969393421e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.33564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>259984.9226536842</v>
+        <v>355114.0039362563</v>
       </c>
     </row>
     <row r="4">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.1352087936451</v>
+        <v>262.5124205579486</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.9926014291788</v>
+        <v>359.1810750380191</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.5112022753257</v>
+        <v>324.9013373501948</v>
       </c>
       <c r="AD4" t="n">
-        <v>195135.2087936451</v>
+        <v>262512.4205579486</v>
       </c>
       <c r="AE4" t="n">
-        <v>266992.6014291788</v>
+        <v>359181.0750380191</v>
       </c>
       <c r="AF4" t="n">
         <v>1.248519873079716e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>241511.2022753257</v>
+        <v>324901.3373501948</v>
       </c>
     </row>
     <row r="5">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.874208494771</v>
+        <v>247.2172548402905</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.1118275524535</v>
+        <v>338.2535545278715</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.6232601510382</v>
+        <v>305.9711100256777</v>
       </c>
       <c r="AD5" t="n">
-        <v>179874.208494771</v>
+        <v>247217.2548402905</v>
       </c>
       <c r="AE5" t="n">
-        <v>246111.8275524535</v>
+        <v>338253.5545278715</v>
       </c>
       <c r="AF5" t="n">
         <v>1.318891220965386e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.73842592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>222623.2601510382</v>
+        <v>305971.1100256777</v>
       </c>
     </row>
     <row r="6">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.4796140950458</v>
+        <v>245.8226604405653</v>
       </c>
       <c r="AB6" t="n">
-        <v>244.2036819695878</v>
+        <v>336.3454089450058</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.8972253045014</v>
+        <v>304.2450751791408</v>
       </c>
       <c r="AD6" t="n">
-        <v>178479.6140950458</v>
+        <v>245822.6604405653</v>
       </c>
       <c r="AE6" t="n">
-        <v>244203.6819695877</v>
+        <v>336345.4089450058</v>
       </c>
       <c r="AF6" t="n">
         <v>1.333438391011177e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.58796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>220897.2253045014</v>
+        <v>304245.0751791408</v>
       </c>
     </row>
     <row r="7">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>176.8645584005062</v>
+        <v>244.1061195195403</v>
       </c>
       <c r="AB7" t="n">
-        <v>241.9938915170911</v>
+        <v>333.9967619284198</v>
       </c>
       <c r="AC7" t="n">
-        <v>218.8983341513299</v>
+        <v>302.1205797374704</v>
       </c>
       <c r="AD7" t="n">
-        <v>176864.5584005062</v>
+        <v>244106.1195195403</v>
       </c>
       <c r="AE7" t="n">
-        <v>241993.8915170911</v>
+        <v>333996.7619284198</v>
       </c>
       <c r="AF7" t="n">
         <v>1.352636270963966e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.40277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>218898.3341513299</v>
+        <v>302120.5797374704</v>
       </c>
     </row>
     <row r="8">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>175.1174528973444</v>
+        <v>242.3590140163786</v>
       </c>
       <c r="AB8" t="n">
-        <v>239.6034246908114</v>
+        <v>331.6062951021402</v>
       </c>
       <c r="AC8" t="n">
-        <v>216.7360101239084</v>
+        <v>299.9582557100488</v>
       </c>
       <c r="AD8" t="n">
-        <v>175117.4528973444</v>
+        <v>242359.0140163786</v>
       </c>
       <c r="AE8" t="n">
-        <v>239603.4246908114</v>
+        <v>331606.2951021402</v>
       </c>
       <c r="AF8" t="n">
         <v>1.367590573863569e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>216736.0101239083</v>
+        <v>299958.2557100488</v>
       </c>
     </row>
     <row r="9">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>174.200646554253</v>
+        <v>241.4422076732872</v>
       </c>
       <c r="AB9" t="n">
-        <v>238.3490098055531</v>
+        <v>330.3518802168819</v>
       </c>
       <c r="AC9" t="n">
-        <v>215.6013148347163</v>
+        <v>298.8235604208568</v>
       </c>
       <c r="AD9" t="n">
-        <v>174200.646554253</v>
+        <v>241442.2076732872</v>
       </c>
       <c r="AE9" t="n">
-        <v>238349.0098055531</v>
+        <v>330351.8802168819</v>
       </c>
       <c r="AF9" t="n">
         <v>1.370550116531658e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>215601.3148347163</v>
+        <v>298823.5604208568</v>
       </c>
     </row>
     <row r="10">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>173.4747306060576</v>
+        <v>231.1641873704363</v>
       </c>
       <c r="AB10" t="n">
-        <v>237.3557795800812</v>
+        <v>316.2890394042743</v>
       </c>
       <c r="AC10" t="n">
-        <v>214.7028771079558</v>
+        <v>286.1028573980791</v>
       </c>
       <c r="AD10" t="n">
-        <v>173474.7306060576</v>
+        <v>231164.1873704363</v>
       </c>
       <c r="AE10" t="n">
-        <v>237355.7795800812</v>
+        <v>316289.0394042743</v>
       </c>
       <c r="AF10" t="n">
         <v>1.374558809246106e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.18287037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>214702.8771079558</v>
+        <v>286102.8573980791</v>
       </c>
     </row>
     <row r="11">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>173.6487961729063</v>
+        <v>231.3382529372851</v>
       </c>
       <c r="AB11" t="n">
-        <v>237.5939437678744</v>
+        <v>316.5272035920676</v>
       </c>
       <c r="AC11" t="n">
-        <v>214.9183112399317</v>
+        <v>286.3182915300549</v>
       </c>
       <c r="AD11" t="n">
-        <v>173648.7961729064</v>
+        <v>231338.2529372851</v>
       </c>
       <c r="AE11" t="n">
-        <v>237593.9437678744</v>
+        <v>316527.2035920676</v>
       </c>
       <c r="AF11" t="n">
         <v>1.373822838318063e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>214918.3112399316</v>
+        <v>286318.2915300549</v>
       </c>
     </row>
   </sheetData>
@@ -34054,28 +34054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.3280857433758</v>
+        <v>430.3262172394499</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.3917511425121</v>
+        <v>588.7913150798512</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.1705033141924</v>
+        <v>532.5978983424302</v>
       </c>
       <c r="AD2" t="n">
-        <v>323328.0857433758</v>
+        <v>430326.2172394498</v>
       </c>
       <c r="AE2" t="n">
-        <v>442391.7511425121</v>
+        <v>588791.3150798512</v>
       </c>
       <c r="AF2" t="n">
         <v>7.641372733775861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.43518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>400170.5033141924</v>
+        <v>532597.8983424302</v>
       </c>
     </row>
     <row r="3">
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.9948670322466</v>
+        <v>326.5876607501081</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.0033207827628</v>
+        <v>446.8516454690234</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.7945827993963</v>
+        <v>404.2047515856824</v>
       </c>
       <c r="AD3" t="n">
-        <v>238994.8670322466</v>
+        <v>326587.6607501081</v>
       </c>
       <c r="AE3" t="n">
-        <v>327003.3207827628</v>
+        <v>446851.6454690234</v>
       </c>
       <c r="AF3" t="n">
         <v>9.739159830358788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.81712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>295794.5827993963</v>
+        <v>404204.7515856824</v>
       </c>
     </row>
     <row r="4">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.9143281087326</v>
+        <v>284.035475270531</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.4235091861133</v>
+        <v>388.6298680259339</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.228704098977</v>
+        <v>351.5395788669834</v>
       </c>
       <c r="AD4" t="n">
-        <v>215914.3281087326</v>
+        <v>284035.475270531</v>
       </c>
       <c r="AE4" t="n">
-        <v>295423.5091861133</v>
+        <v>388629.8680259339</v>
       </c>
       <c r="AF4" t="n">
         <v>1.08771944734059e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.05787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>267228.704098977</v>
+        <v>351539.5788669835</v>
       </c>
     </row>
     <row r="5">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.3005718680946</v>
+        <v>270.4890388375973</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.7965673011444</v>
+        <v>370.0950360717969</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.3794914044265</v>
+        <v>334.7736852607492</v>
       </c>
       <c r="AD5" t="n">
-        <v>202300.5718680946</v>
+        <v>270489.0388375972</v>
       </c>
       <c r="AE5" t="n">
-        <v>276796.5673011444</v>
+        <v>370095.0360717968</v>
       </c>
       <c r="AF5" t="n">
         <v>1.128710201548068e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.51388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>250379.4914044265</v>
+        <v>334773.6852607492</v>
       </c>
     </row>
     <row r="6">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.2700122592966</v>
+        <v>268.3569940023141</v>
       </c>
       <c r="AB6" t="n">
-        <v>274.0182660624209</v>
+        <v>367.1778782689826</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.8663473365556</v>
+        <v>332.1349369043789</v>
       </c>
       <c r="AD6" t="n">
-        <v>200270.0122592966</v>
+        <v>268356.9940023141</v>
       </c>
       <c r="AE6" t="n">
-        <v>274018.2660624209</v>
+        <v>367177.8782689826</v>
       </c>
       <c r="AF6" t="n">
         <v>1.148986263259948e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.24768518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>247866.3473365556</v>
+        <v>332134.9369043789</v>
       </c>
     </row>
     <row r="7">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>187.0714642826056</v>
+        <v>255.2257658333241</v>
       </c>
       <c r="AB7" t="n">
-        <v>255.9594304418797</v>
+        <v>349.2111525791042</v>
       </c>
       <c r="AC7" t="n">
-        <v>231.5310216418981</v>
+        <v>315.8829302979896</v>
       </c>
       <c r="AD7" t="n">
-        <v>187071.4642826056</v>
+        <v>255225.7658333241</v>
       </c>
       <c r="AE7" t="n">
-        <v>255959.4304418797</v>
+        <v>349211.1525791042</v>
       </c>
       <c r="AF7" t="n">
         <v>1.185180377606765e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.81944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>231531.0216418981</v>
+        <v>315882.9302979896</v>
       </c>
     </row>
     <row r="8">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.2117782514447</v>
+        <v>254.3660798021632</v>
       </c>
       <c r="AB8" t="n">
-        <v>254.783170087375</v>
+        <v>348.0348922245996</v>
       </c>
       <c r="AC8" t="n">
-        <v>230.4670219247352</v>
+        <v>314.8189305808267</v>
       </c>
       <c r="AD8" t="n">
-        <v>186211.7782514447</v>
+        <v>254366.0798021632</v>
       </c>
       <c r="AE8" t="n">
-        <v>254783.170087375</v>
+        <v>348034.8922245995</v>
       </c>
       <c r="AF8" t="n">
         <v>1.19153344928062e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>230467.0219247352</v>
+        <v>314818.9305808267</v>
       </c>
     </row>
     <row r="9">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>185.2700735975192</v>
+        <v>253.4243751482377</v>
       </c>
       <c r="AB9" t="n">
-        <v>253.4946882347975</v>
+        <v>346.7464103720221</v>
       </c>
       <c r="AC9" t="n">
-        <v>229.3015109717717</v>
+        <v>313.6534196278632</v>
       </c>
       <c r="AD9" t="n">
-        <v>185270.0735975192</v>
+        <v>253424.3751482377</v>
       </c>
       <c r="AE9" t="n">
-        <v>253494.6882347975</v>
+        <v>346746.4103720221</v>
       </c>
       <c r="AF9" t="n">
         <v>1.197603533352076e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.66898148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>229301.5109717717</v>
+        <v>313653.4196278632</v>
       </c>
     </row>
     <row r="10">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>183.7217018279525</v>
+        <v>251.8760033786711</v>
       </c>
       <c r="AB10" t="n">
-        <v>251.376137670336</v>
+        <v>344.6278598075606</v>
       </c>
       <c r="AC10" t="n">
-        <v>227.3851518997774</v>
+        <v>311.7370605558689</v>
       </c>
       <c r="AD10" t="n">
-        <v>183721.7018279525</v>
+        <v>251876.0033786711</v>
       </c>
       <c r="AE10" t="n">
-        <v>251376.137670336</v>
+        <v>344627.8598075606</v>
       </c>
       <c r="AF10" t="n">
         <v>1.210295527319666e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.53009259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>227385.1518997774</v>
+        <v>311737.0605558689</v>
       </c>
     </row>
     <row r="11">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>182.63102745743</v>
+        <v>250.6838437816633</v>
       </c>
       <c r="AB11" t="n">
-        <v>249.8838288794306</v>
+        <v>342.9966944525659</v>
       </c>
       <c r="AC11" t="n">
-        <v>226.0352669654069</v>
+        <v>310.2615713329994</v>
       </c>
       <c r="AD11" t="n">
-        <v>182631.02745743</v>
+        <v>250683.8437816633</v>
       </c>
       <c r="AE11" t="n">
-        <v>249883.8288794305</v>
+        <v>342996.6944525659</v>
       </c>
       <c r="AF11" t="n">
         <v>1.219096441754272e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH11" t="n">
-        <v>226035.2669654069</v>
+        <v>310261.5713329994</v>
       </c>
     </row>
     <row r="12">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>181.9740781210914</v>
+        <v>250.0268944453247</v>
       </c>
       <c r="AB12" t="n">
-        <v>248.9849618148933</v>
+        <v>342.0978273880286</v>
       </c>
       <c r="AC12" t="n">
-        <v>225.2221865119409</v>
+        <v>309.4484908795334</v>
       </c>
       <c r="AD12" t="n">
-        <v>181974.0781210914</v>
+        <v>250026.8944453247</v>
       </c>
       <c r="AE12" t="n">
-        <v>248984.9618148933</v>
+        <v>342097.8273880286</v>
       </c>
       <c r="AF12" t="n">
         <v>1.216422208911602e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.46064814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>225222.1865119409</v>
+        <v>309448.4908795335</v>
       </c>
     </row>
     <row r="13">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>180.7640900224896</v>
+        <v>248.8169063467229</v>
       </c>
       <c r="AB13" t="n">
-        <v>247.3294027174797</v>
+        <v>340.4422682906151</v>
       </c>
       <c r="AC13" t="n">
-        <v>223.7246316511922</v>
+        <v>307.9509360187848</v>
       </c>
       <c r="AD13" t="n">
-        <v>180764.0900224896</v>
+        <v>248816.9063467229</v>
       </c>
       <c r="AE13" t="n">
-        <v>247329.4027174797</v>
+        <v>340442.2682906151</v>
       </c>
       <c r="AF13" t="n">
         <v>1.224911836983569e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.36805555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>223724.6316511922</v>
+        <v>307950.9360187848</v>
       </c>
     </row>
     <row r="14">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>180.3627885355278</v>
+        <v>248.4156048597611</v>
       </c>
       <c r="AB14" t="n">
-        <v>246.7803243188467</v>
+        <v>339.893189891982</v>
       </c>
       <c r="AC14" t="n">
-        <v>223.2279565242882</v>
+        <v>307.4542608918807</v>
       </c>
       <c r="AD14" t="n">
-        <v>180362.7885355278</v>
+        <v>248415.6048597611</v>
       </c>
       <c r="AE14" t="n">
-        <v>246780.3243188467</v>
+        <v>339893.1898919821</v>
       </c>
       <c r="AF14" t="n">
         <v>1.224119471696852e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>223227.9565242882</v>
+        <v>307454.2608918807</v>
       </c>
     </row>
     <row r="15">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>180.0149215882818</v>
+        <v>248.0677379125151</v>
       </c>
       <c r="AB15" t="n">
-        <v>246.3043574148184</v>
+        <v>339.4172229879537</v>
       </c>
       <c r="AC15" t="n">
-        <v>222.7974152335564</v>
+        <v>307.023719601149</v>
       </c>
       <c r="AD15" t="n">
-        <v>180014.9215882818</v>
+        <v>248067.7379125151</v>
       </c>
       <c r="AE15" t="n">
-        <v>246304.3574148184</v>
+        <v>339417.2229879537</v>
       </c>
       <c r="AF15" t="n">
         <v>1.231335655558023e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>222797.4152335564</v>
+        <v>307023.719601149</v>
       </c>
     </row>
   </sheetData>
@@ -35729,28 +35729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.5593680187449</v>
+        <v>217.6997337151996</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.4749460012307</v>
+        <v>297.8663799034166</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.2920739618845</v>
+        <v>269.4384306636123</v>
       </c>
       <c r="AD2" t="n">
-        <v>154559.3680187449</v>
+        <v>217699.7337151996</v>
       </c>
       <c r="AE2" t="n">
-        <v>211474.9460012307</v>
+        <v>297866.3799034166</v>
       </c>
       <c r="AF2" t="n">
         <v>2.812869449842399e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>191292.0739618845</v>
+        <v>269438.4306636123</v>
       </c>
     </row>
   </sheetData>
@@ -36026,28 +36026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.9400672244485</v>
+        <v>287.4176103008629</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.9857501122226</v>
+        <v>393.2574543837007</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.309917119154</v>
+        <v>355.7255148776233</v>
       </c>
       <c r="AD2" t="n">
-        <v>211940.0672244485</v>
+        <v>287417.6103008629</v>
       </c>
       <c r="AE2" t="n">
-        <v>289985.7501122226</v>
+        <v>393257.4543837007</v>
       </c>
       <c r="AF2" t="n">
         <v>1.34322444548062e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>262309.917119154</v>
+        <v>355725.5148776233</v>
       </c>
     </row>
     <row r="3">
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.3045358259221</v>
+        <v>246.7810678724757</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.3864233396648</v>
+        <v>337.6567442752968</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.0169120596061</v>
+        <v>305.43125850598</v>
       </c>
       <c r="AD3" t="n">
-        <v>171304.5358259221</v>
+        <v>246781.0678724757</v>
       </c>
       <c r="AE3" t="n">
-        <v>234386.4233396648</v>
+        <v>337656.7442752968</v>
       </c>
       <c r="AF3" t="n">
         <v>1.550368118064108e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>212016.9120596061</v>
+        <v>305431.25850598</v>
       </c>
     </row>
     <row r="4">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.0160774113739</v>
+        <v>233.0163472084895</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.5187653434502</v>
+        <v>318.8232462062226</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.7092551072387</v>
+        <v>288.3952030596317</v>
       </c>
       <c r="AD4" t="n">
-        <v>167016.0774113739</v>
+        <v>233016.3472084895</v>
       </c>
       <c r="AE4" t="n">
-        <v>228518.7653434502</v>
+        <v>318823.2462062226</v>
       </c>
       <c r="AF4" t="n">
         <v>1.628386183923766e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>206709.2551072387</v>
+        <v>288395.2030596317</v>
       </c>
     </row>
     <row r="5">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.048113913278</v>
+        <v>221.6736066874408</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.8261108649347</v>
+        <v>303.3036082189367</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.2735837929876</v>
+        <v>274.3567375398987</v>
       </c>
       <c r="AD5" t="n">
-        <v>165048.113913278</v>
+        <v>221673.6066874408</v>
       </c>
       <c r="AE5" t="n">
-        <v>225826.1108649347</v>
+        <v>303303.6082189367</v>
       </c>
       <c r="AF5" t="n">
         <v>1.652470916656168e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>204273.5837929876</v>
+        <v>274356.7375398987</v>
       </c>
     </row>
     <row r="6">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.3321129084543</v>
+        <v>220.3997025132743</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.1640055335435</v>
+        <v>301.5605963271573</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.0108092160255</v>
+        <v>272.7800762567376</v>
       </c>
       <c r="AD6" t="n">
-        <v>154332.1129084543</v>
+        <v>220399.7025132744</v>
       </c>
       <c r="AE6" t="n">
-        <v>211164.0055335435</v>
+        <v>301560.5963271573</v>
       </c>
       <c r="AF6" t="n">
         <v>1.6693508148105e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.97453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>191010.8092160255</v>
+        <v>272780.0762567376</v>
       </c>
     </row>
     <row r="7">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.612789462183</v>
+        <v>220.680379067003</v>
       </c>
       <c r="AB7" t="n">
-        <v>211.5480395769304</v>
+        <v>301.9446303705442</v>
       </c>
       <c r="AC7" t="n">
-        <v>191.358191589307</v>
+        <v>273.127458630019</v>
       </c>
       <c r="AD7" t="n">
-        <v>154612.789462183</v>
+        <v>220680.379067003</v>
       </c>
       <c r="AE7" t="n">
-        <v>211548.0395769305</v>
+        <v>301944.6303705443</v>
       </c>
       <c r="AF7" t="n">
         <v>1.666992868948587e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>191358.191589307</v>
+        <v>273127.458630019</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.9924628343813</v>
+        <v>325.9869943764841</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.3682753700635</v>
+        <v>446.0297872371008</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.0292680366113</v>
+        <v>403.4613303499293</v>
       </c>
       <c r="AD2" t="n">
-        <v>239992.4628343814</v>
+        <v>325986.9943764841</v>
       </c>
       <c r="AE2" t="n">
-        <v>328368.2753700636</v>
+        <v>446029.7872371008</v>
       </c>
       <c r="AF2" t="n">
         <v>1.087261973135735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>297029.2680366113</v>
+        <v>403461.3303499293</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.6546874594823</v>
+        <v>269.0601056336814</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.5986427069012</v>
+        <v>368.1399066221152</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.4411582100501</v>
+        <v>333.0051506217039</v>
       </c>
       <c r="AD3" t="n">
-        <v>192654.6874594823</v>
+        <v>269060.1056336813</v>
       </c>
       <c r="AE3" t="n">
-        <v>263598.6427069012</v>
+        <v>368139.9066221152</v>
       </c>
       <c r="AF3" t="n">
         <v>1.303471268461816e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>238441.1582100501</v>
+        <v>333005.1506217039</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.8380418727499</v>
+        <v>254.2092946281647</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.325854550874</v>
+        <v>347.8203718326612</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.1031765025909</v>
+        <v>314.6248837140137</v>
       </c>
       <c r="AD4" t="n">
-        <v>177838.0418727499</v>
+        <v>254209.2946281647</v>
       </c>
       <c r="AE4" t="n">
-        <v>243325.854550874</v>
+        <v>347820.3718326612</v>
       </c>
       <c r="AF4" t="n">
         <v>1.379273664179608e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.98148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>220103.1765025909</v>
+        <v>314624.8837140137</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.2067358062968</v>
+        <v>242.0913714501511</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.7255855057239</v>
+        <v>331.2400947354713</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.8465120820994</v>
+        <v>299.6270049924092</v>
       </c>
       <c r="AD5" t="n">
-        <v>175206.7358062968</v>
+        <v>242091.3714501511</v>
       </c>
       <c r="AE5" t="n">
-        <v>239725.5855057239</v>
+        <v>331240.0947354713</v>
       </c>
       <c r="AF5" t="n">
         <v>1.414500365552967e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.63425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>216846.5120820994</v>
+        <v>299627.0049924093</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.8774044148811</v>
+        <v>239.6605548322502</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.5384915331422</v>
+        <v>327.9141441988003</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.9635898851454</v>
+        <v>296.6184785069563</v>
       </c>
       <c r="AD6" t="n">
-        <v>172877.4044148811</v>
+        <v>239660.5548322502</v>
       </c>
       <c r="AE6" t="n">
-        <v>236538.4915331422</v>
+        <v>327914.1441988003</v>
       </c>
       <c r="AF6" t="n">
         <v>1.445027951605944e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.34490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>213963.5898851454</v>
+        <v>296618.4785069562</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>171.346796193944</v>
+        <v>238.1299466113132</v>
       </c>
       <c r="AB7" t="n">
-        <v>234.4442458395881</v>
+        <v>325.8198985052463</v>
       </c>
       <c r="AC7" t="n">
-        <v>212.0692160612912</v>
+        <v>294.724104683102</v>
       </c>
       <c r="AD7" t="n">
-        <v>171346.796193944</v>
+        <v>238129.9466113131</v>
       </c>
       <c r="AE7" t="n">
-        <v>234444.2458395881</v>
+        <v>325819.8985052463</v>
       </c>
       <c r="AF7" t="n">
         <v>1.457059019908482e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>212069.2160612912</v>
+        <v>294724.104683102</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>169.7808316660793</v>
+        <v>227.077364971888</v>
       </c>
       <c r="AB8" t="n">
-        <v>232.3016240870855</v>
+        <v>310.6972687007039</v>
       </c>
       <c r="AC8" t="n">
-        <v>210.1310831216582</v>
+        <v>281.0447574423561</v>
       </c>
       <c r="AD8" t="n">
-        <v>169780.8316660793</v>
+        <v>227077.364971888</v>
       </c>
       <c r="AE8" t="n">
-        <v>232301.6240870855</v>
+        <v>310697.2687007039</v>
       </c>
       <c r="AF8" t="n">
         <v>1.474105810591995e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>210131.0831216582</v>
+        <v>281044.7574423561</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>169.9738698072511</v>
+        <v>227.2704031130599</v>
       </c>
       <c r="AB9" t="n">
-        <v>232.5657473880785</v>
+        <v>310.9613920016969</v>
       </c>
       <c r="AC9" t="n">
-        <v>210.3699988655039</v>
+        <v>281.2836731862018</v>
       </c>
       <c r="AD9" t="n">
-        <v>169973.8698072511</v>
+        <v>227270.4031130599</v>
       </c>
       <c r="AE9" t="n">
-        <v>232565.7473880785</v>
+        <v>310961.3920016969</v>
       </c>
       <c r="AF9" t="n">
         <v>1.472689410584078e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.10185185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>210369.9988655039</v>
+        <v>281283.6731862018</v>
       </c>
     </row>
   </sheetData>
